--- a/Code/Results/Cases/Case_1_248/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_248/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9938711528061903</v>
+        <v>1.024609252641882</v>
       </c>
       <c r="D2">
-        <v>1.025613548488738</v>
+        <v>1.031550077435396</v>
       </c>
       <c r="E2">
-        <v>1.001140851133765</v>
+        <v>1.025069889366229</v>
       </c>
       <c r="F2">
-        <v>1.001998256242409</v>
+        <v>1.035764980930472</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041899896500187</v>
+        <v>1.033816135422419</v>
       </c>
       <c r="J2">
-        <v>1.016236734797961</v>
+        <v>1.029782908912855</v>
       </c>
       <c r="K2">
-        <v>1.036727216216053</v>
+        <v>1.034357871925654</v>
       </c>
       <c r="L2">
-        <v>1.012584314937063</v>
+        <v>1.027896538741618</v>
       </c>
       <c r="M2">
-        <v>1.013429822204805</v>
+        <v>1.038560649235037</v>
       </c>
       <c r="N2">
-        <v>1.017679907525352</v>
+        <v>1.031245318761266</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9981868872562428</v>
+        <v>1.025519766115473</v>
       </c>
       <c r="D3">
-        <v>1.027857578713298</v>
+        <v>1.032028970098973</v>
       </c>
       <c r="E3">
-        <v>1.004566335847066</v>
+        <v>1.02584193080756</v>
       </c>
       <c r="F3">
-        <v>1.007064195183791</v>
+        <v>1.036905067889644</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042940954296582</v>
+        <v>1.033986102177138</v>
       </c>
       <c r="J3">
-        <v>1.018727101885391</v>
+        <v>1.03033260366658</v>
       </c>
       <c r="K3">
-        <v>1.038146004911973</v>
+        <v>1.034646235768816</v>
       </c>
       <c r="L3">
-        <v>1.015141121076107</v>
+        <v>1.02847590082571</v>
       </c>
       <c r="M3">
-        <v>1.017607479254985</v>
+        <v>1.039509320476909</v>
       </c>
       <c r="N3">
-        <v>1.020173811219699</v>
+        <v>1.031795794144588</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.000923313595835</v>
+        <v>1.026109356826506</v>
       </c>
       <c r="D4">
-        <v>1.029285083114543</v>
+        <v>1.032339136029018</v>
       </c>
       <c r="E4">
-        <v>1.006744346744195</v>
+        <v>1.026342241533654</v>
       </c>
       <c r="F4">
-        <v>1.010277882756826</v>
+        <v>1.037643502423261</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043592583687077</v>
+        <v>1.034095068309438</v>
       </c>
       <c r="J4">
-        <v>1.020303430370145</v>
+        <v>1.030688110142315</v>
       </c>
       <c r="K4">
-        <v>1.039042457890211</v>
+        <v>1.034832394066635</v>
       </c>
       <c r="L4">
-        <v>1.016762049283208</v>
+        <v>1.028850877591822</v>
       </c>
       <c r="M4">
-        <v>1.020253825455344</v>
+        <v>1.040123317964751</v>
       </c>
       <c r="N4">
-        <v>1.02175237827171</v>
+        <v>1.032151805480296</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.002060738395449</v>
+        <v>1.026357322231704</v>
       </c>
       <c r="D5">
-        <v>1.029879475440254</v>
+        <v>1.032469597673264</v>
       </c>
       <c r="E5">
-        <v>1.007651071062602</v>
+        <v>1.026552750024266</v>
       </c>
       <c r="F5">
-        <v>1.011614104423461</v>
+        <v>1.037954112843225</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043861371245847</v>
+        <v>1.034140634453223</v>
       </c>
       <c r="J5">
-        <v>1.0209579703133</v>
+        <v>1.030837520483723</v>
       </c>
       <c r="K5">
-        <v>1.039414269856484</v>
+        <v>1.034910550513087</v>
       </c>
       <c r="L5">
-        <v>1.017435717007825</v>
+        <v>1.029008538616078</v>
       </c>
       <c r="M5">
-        <v>1.021353212837419</v>
+        <v>1.040381476516981</v>
       </c>
       <c r="N5">
-        <v>1.02240784773666</v>
+        <v>1.032301428001526</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.002250969807927</v>
+        <v>1.026398962638525</v>
       </c>
       <c r="D6">
-        <v>1.029978944517628</v>
+        <v>1.032491506690992</v>
       </c>
       <c r="E6">
-        <v>1.007802800152498</v>
+        <v>1.026588105718766</v>
       </c>
       <c r="F6">
-        <v>1.011837609733063</v>
+        <v>1.038006275808441</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043906202533633</v>
+        <v>1.034148270931422</v>
       </c>
       <c r="J6">
-        <v>1.021067399816201</v>
+        <v>1.030862604499377</v>
       </c>
       <c r="K6">
-        <v>1.039476405390186</v>
+        <v>1.034923667167575</v>
       </c>
       <c r="L6">
-        <v>1.017548380119848</v>
+        <v>1.029035011787843</v>
       </c>
       <c r="M6">
-        <v>1.02153704798133</v>
+        <v>1.040424824456391</v>
       </c>
       <c r="N6">
-        <v>1.022517432642008</v>
+        <v>1.03232654763936</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.000938562272307</v>
+        <v>1.026112669754795</v>
       </c>
       <c r="D7">
-        <v>1.029293047745742</v>
+        <v>1.032340878999198</v>
       </c>
       <c r="E7">
-        <v>1.006756497058215</v>
+        <v>1.026345053661143</v>
       </c>
       <c r="F7">
-        <v>1.010295794867625</v>
+        <v>1.037647652137305</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043596195362041</v>
+        <v>1.034095678122824</v>
       </c>
       <c r="J7">
-        <v>1.020312208053202</v>
+        <v>1.03069010674681</v>
       </c>
       <c r="K7">
-        <v>1.039047445782664</v>
+        <v>1.034833438808763</v>
       </c>
       <c r="L7">
-        <v>1.016771081076226</v>
+        <v>1.02885298418562</v>
       </c>
       <c r="M7">
-        <v>1.020268566523107</v>
+        <v>1.040126767358834</v>
       </c>
       <c r="N7">
-        <v>1.021761168420084</v>
+        <v>1.032153804920198</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.995341591773417</v>
+        <v>1.02491687585162</v>
       </c>
       <c r="D8">
-        <v>1.026377096837634</v>
+        <v>1.031711860358719</v>
       </c>
       <c r="E8">
-        <v>1.00230667246064</v>
+        <v>1.02533064867825</v>
       </c>
       <c r="F8">
-        <v>1.003723992091253</v>
+        <v>1.036150128962936</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042256351423335</v>
+        <v>1.033873786061641</v>
       </c>
       <c r="J8">
-        <v>1.017085792972233</v>
+        <v>1.029968718181677</v>
       </c>
       <c r="K8">
-        <v>1.037211244845819</v>
+        <v>1.034455414773418</v>
       </c>
       <c r="L8">
-        <v>1.013455488798564</v>
+        <v>1.028092317516147</v>
       </c>
       <c r="M8">
-        <v>1.014853754727872</v>
+        <v>1.038881227110102</v>
       </c>
       <c r="N8">
-        <v>1.018530171459625</v>
+        <v>1.031431391900558</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9850265812049247</v>
+        <v>1.022813048909476</v>
       </c>
       <c r="D9">
-        <v>1.021044167562668</v>
+        <v>1.030605744510038</v>
       </c>
       <c r="E9">
-        <v>0.9941560232189562</v>
+        <v>1.023548924971929</v>
       </c>
       <c r="F9">
-        <v>0.9916232028732995</v>
+        <v>1.033516845456389</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039721579111266</v>
+        <v>1.033475043440816</v>
       </c>
       <c r="J9">
-        <v>1.011119399877445</v>
+        <v>1.028696175647258</v>
       </c>
       <c r="K9">
-        <v>1.033804801358036</v>
+        <v>1.033786020040151</v>
       </c>
       <c r="L9">
-        <v>1.007344631835701</v>
+        <v>1.026752662002594</v>
       </c>
       <c r="M9">
-        <v>1.004853665742066</v>
+        <v>1.036687544938164</v>
       </c>
       <c r="N9">
-        <v>1.012555305402287</v>
+        <v>1.030157042209778</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9778122767726359</v>
+        <v>1.021412778450242</v>
       </c>
       <c r="D10">
-        <v>1.017348010609928</v>
+        <v>1.029869973806245</v>
       </c>
       <c r="E10">
-        <v>0.9884925343754427</v>
+        <v>1.022365075831965</v>
       </c>
       <c r="F10">
-        <v>0.983164467383344</v>
+        <v>1.031765066423194</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037907024320395</v>
+        <v>1.033204042143105</v>
       </c>
       <c r="J10">
-        <v>1.006934724794788</v>
+        <v>1.027846945132532</v>
       </c>
       <c r="K10">
-        <v>1.031410949933334</v>
+        <v>1.033337618171422</v>
       </c>
       <c r="L10">
-        <v>1.003072715212321</v>
+        <v>1.02586010835458</v>
       </c>
       <c r="M10">
-        <v>0.9978444944664483</v>
+        <v>1.035225864468192</v>
       </c>
       <c r="N10">
-        <v>1.008364687601024</v>
+        <v>1.029306605690313</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9746002114043494</v>
+        <v>1.020806997438605</v>
       </c>
       <c r="D11">
-        <v>1.015711718699858</v>
+        <v>1.029551786326544</v>
       </c>
       <c r="E11">
-        <v>0.985980468662952</v>
+        <v>1.021853412636592</v>
       </c>
       <c r="F11">
-        <v>0.9793987324172526</v>
+        <v>1.031007417202179</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037089816248674</v>
+        <v>1.03308547516639</v>
       </c>
       <c r="J11">
-        <v>1.005069203720514</v>
+        <v>1.027479022749476</v>
       </c>
       <c r="K11">
-        <v>1.030343295457674</v>
+        <v>1.033142960252397</v>
       </c>
       <c r="L11">
-        <v>1.001171705903878</v>
+        <v>1.025473764599098</v>
       </c>
       <c r="M11">
-        <v>0.9947199045658212</v>
+        <v>1.034593128309253</v>
       </c>
       <c r="N11">
-        <v>1.006496517272847</v>
+        <v>1.028938160815272</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9733931049571366</v>
+        <v>1.02058206612613</v>
       </c>
       <c r="D12">
-        <v>1.015098323878749</v>
+        <v>1.029433659994602</v>
       </c>
       <c r="E12">
-        <v>0.9850379206629633</v>
+        <v>1.021663502312045</v>
       </c>
       <c r="F12">
-        <v>0.9779835509200939</v>
+        <v>1.030726125266673</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036781361225175</v>
+        <v>1.033041251076737</v>
       </c>
       <c r="J12">
-        <v>1.004367819056097</v>
+        <v>1.027342330712366</v>
       </c>
       <c r="K12">
-        <v>1.0299418698414</v>
+        <v>1.033070581956895</v>
       </c>
       <c r="L12">
-        <v>1.000457496167833</v>
+        <v>1.025330280927125</v>
       </c>
       <c r="M12">
-        <v>0.9935450663909101</v>
+        <v>1.034358129371736</v>
       </c>
       <c r="N12">
-        <v>1.005794136561756</v>
+        <v>1.028801274659791</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9736526796208339</v>
+        <v>1.020630310899767</v>
       </c>
       <c r="D13">
-        <v>1.015230156391113</v>
+        <v>1.029458995631558</v>
       </c>
       <c r="E13">
-        <v>0.9852405363361151</v>
+        <v>1.021704232177412</v>
       </c>
       <c r="F13">
-        <v>0.9782878710296481</v>
+        <v>1.030786457334039</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036847750915139</v>
+        <v>1.03305074556878</v>
       </c>
       <c r="J13">
-        <v>1.004518657514448</v>
+        <v>1.027371652931206</v>
       </c>
       <c r="K13">
-        <v>1.030028199528528</v>
+        <v>1.033086110665253</v>
       </c>
       <c r="L13">
-        <v>1.000611069275547</v>
+        <v>1.025361057670088</v>
       </c>
       <c r="M13">
-        <v>0.9937977299194816</v>
+        <v>1.034408536195855</v>
       </c>
       <c r="N13">
-        <v>1.005945189228019</v>
+        <v>1.028830638519544</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9745007217659888</v>
+        <v>1.020788402853904</v>
       </c>
       <c r="D14">
-        <v>1.015661130916395</v>
+        <v>1.029542020679198</v>
       </c>
       <c r="E14">
-        <v>0.9859027531214952</v>
+        <v>1.021837711641731</v>
       </c>
       <c r="F14">
-        <v>0.9792820937081997</v>
+        <v>1.030984162814942</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037064420434499</v>
+        <v>1.033081823320311</v>
       </c>
       <c r="J14">
-        <v>1.005011401806309</v>
+        <v>1.027467724335996</v>
       </c>
       <c r="K14">
-        <v>1.030310213529999</v>
+        <v>1.033136978937225</v>
       </c>
       <c r="L14">
-        <v>1.001112836505566</v>
+        <v>1.025461903748226</v>
       </c>
       <c r="M14">
-        <v>0.9946230869389232</v>
+        <v>1.034573702662548</v>
       </c>
       <c r="N14">
-        <v>1.006438633273293</v>
+        <v>1.028926846356748</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9750213498020245</v>
+        <v>1.02088581951067</v>
       </c>
       <c r="D15">
-        <v>1.015925919258792</v>
+        <v>1.02959318350436</v>
       </c>
       <c r="E15">
-        <v>0.9863094989522869</v>
+        <v>1.021919971886016</v>
       </c>
       <c r="F15">
-        <v>0.9798924620686569</v>
+        <v>1.031105993276859</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037197261903378</v>
+        <v>1.033100947109752</v>
       </c>
       <c r="J15">
-        <v>1.005313865910201</v>
+        <v>1.027526913241818</v>
       </c>
       <c r="K15">
-        <v>1.030483323283838</v>
+        <v>1.033168310824889</v>
       </c>
       <c r="L15">
-        <v>1.001420907637492</v>
+        <v>1.025524041234191</v>
       </c>
       <c r="M15">
-        <v>0.9951297075371632</v>
+        <v>1.034675470817556</v>
       </c>
       <c r="N15">
-        <v>1.006741526910906</v>
+        <v>1.028986119317606</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.978023529580727</v>
+        <v>1.021452993698449</v>
       </c>
       <c r="D16">
-        <v>1.01745583253696</v>
+        <v>1.029891099558619</v>
       </c>
       <c r="E16">
-        <v>0.9886579530666272</v>
+        <v>1.022399053382245</v>
       </c>
       <c r="F16">
-        <v>0.9834121372311914</v>
+        <v>1.03181536771259</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037960581450207</v>
+        <v>1.03321188534727</v>
       </c>
       <c r="J16">
-        <v>1.007057371570807</v>
+        <v>1.027871358781194</v>
       </c>
       <c r="K16">
-        <v>1.031481136408295</v>
+        <v>1.03335052659029</v>
       </c>
       <c r="L16">
-        <v>1.003197766519505</v>
+        <v>1.025885751697692</v>
       </c>
       <c r="M16">
-        <v>0.9980499116540504</v>
+        <v>1.035267860919046</v>
       </c>
       <c r="N16">
-        <v>1.008487508549532</v>
+        <v>1.029331054009156</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9798825862305275</v>
+        <v>1.021808913645538</v>
       </c>
       <c r="D17">
-        <v>1.018405762732779</v>
+        <v>1.030078084320943</v>
       </c>
       <c r="E17">
-        <v>0.9901147540670912</v>
+        <v>1.022699824116686</v>
       </c>
       <c r="F17">
-        <v>0.9855917071912552</v>
+        <v>1.032260575943535</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038430839447298</v>
+        <v>1.033281147261461</v>
       </c>
       <c r="J17">
-        <v>1.008136418319136</v>
+        <v>1.028087367367801</v>
       </c>
       <c r="K17">
-        <v>1.032098589230368</v>
+        <v>1.033464693373511</v>
       </c>
       <c r="L17">
-        <v>1.004298356266708</v>
+        <v>1.026112680652366</v>
       </c>
       <c r="M17">
-        <v>0.9998571720372391</v>
+        <v>1.03563950023462</v>
       </c>
       <c r="N17">
-        <v>1.009568087668013</v>
+        <v>1.029547369352733</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9809584834325915</v>
+        <v>1.022016568292506</v>
       </c>
       <c r="D18">
-        <v>1.018956399292955</v>
+        <v>1.03018718844051</v>
       </c>
       <c r="E18">
-        <v>0.9909587517301709</v>
+        <v>1.022875350300015</v>
       </c>
       <c r="F18">
-        <v>0.9868531379274516</v>
+        <v>1.032520343528521</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038702106803918</v>
+        <v>1.033321428661346</v>
       </c>
       <c r="J18">
-        <v>1.008760672065326</v>
+        <v>1.028213342176921</v>
       </c>
       <c r="K18">
-        <v>1.032455750907065</v>
+        <v>1.033531236912221</v>
       </c>
       <c r="L18">
-        <v>1.00493539548116</v>
+        <v>1.026245057714607</v>
       </c>
       <c r="M18">
-        <v>1.000902728861009</v>
+        <v>1.035856288620335</v>
       </c>
       <c r="N18">
-        <v>1.010193227926125</v>
+        <v>1.029673523060531</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.981323923607889</v>
+        <v>1.022087382052343</v>
       </c>
       <c r="D19">
-        <v>1.019143574813875</v>
+        <v>1.030224396702491</v>
       </c>
       <c r="E19">
-        <v>0.9912455753092846</v>
+        <v>1.022935215708925</v>
       </c>
       <c r="F19">
-        <v>0.9872816055064846</v>
+        <v>1.032608932002731</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038794093812194</v>
+        <v>1.033335143564169</v>
       </c>
       <c r="J19">
-        <v>1.008972667144354</v>
+        <v>1.028256293027005</v>
       </c>
       <c r="K19">
-        <v>1.032577032201885</v>
+        <v>1.03355391836523</v>
       </c>
       <c r="L19">
-        <v>1.005151786979047</v>
+        <v>1.026290197091003</v>
       </c>
       <c r="M19">
-        <v>1.001257802551877</v>
+        <v>1.035930210812202</v>
       </c>
       <c r="N19">
-        <v>1.010405524062482</v>
+        <v>1.029716534905749</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9796840072432866</v>
+        <v>1.02177072136092</v>
       </c>
       <c r="D20">
-        <v>1.018304201743603</v>
+        <v>1.030058018572279</v>
       </c>
       <c r="E20">
-        <v>0.9899590491231551</v>
+        <v>1.022667544769094</v>
       </c>
       <c r="F20">
-        <v>0.9853588879941041</v>
+        <v>1.032212800504768</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038380699458821</v>
+        <v>1.033273728305182</v>
       </c>
       <c r="J20">
-        <v>1.00802118088774</v>
+        <v>1.028064193686156</v>
       </c>
       <c r="K20">
-        <v>1.032032652712915</v>
+        <v>1.033452449317379</v>
       </c>
       <c r="L20">
-        <v>1.004180784649643</v>
+        <v>1.026088331947011</v>
       </c>
       <c r="M20">
-        <v>0.9996641637334843</v>
+        <v>1.035599625045433</v>
       </c>
       <c r="N20">
-        <v>1.009452686586246</v>
+        <v>1.029524162761801</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9742513872996449</v>
+        <v>1.02074184642364</v>
       </c>
       <c r="D21">
-        <v>1.01553437617186</v>
+        <v>1.029517570128889</v>
       </c>
       <c r="E21">
-        <v>0.9857080118074625</v>
+        <v>1.021798401276625</v>
       </c>
       <c r="F21">
-        <v>0.978989781067984</v>
+        <v>1.030925939813872</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037000753610027</v>
+        <v>1.033072676745725</v>
       </c>
       <c r="J21">
-        <v>1.004866537471146</v>
+        <v>1.027439434504025</v>
       </c>
       <c r="K21">
-        <v>1.030227302848469</v>
+        <v>1.033122001524951</v>
       </c>
       <c r="L21">
-        <v>1.000965305177892</v>
+        <v>1.025432206488315</v>
       </c>
       <c r="M21">
-        <v>0.9943804390499196</v>
+        <v>1.034525064495281</v>
       </c>
       <c r="N21">
-        <v>1.006293563214157</v>
+        <v>1.028898516349971</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9707542598690636</v>
+        <v>1.020095430948906</v>
       </c>
       <c r="D22">
-        <v>1.013760339394723</v>
+        <v>1.029178132118423</v>
       </c>
       <c r="E22">
-        <v>0.9829802502212935</v>
+        <v>1.021252770994926</v>
       </c>
       <c r="F22">
-        <v>0.9748897531617513</v>
+        <v>1.030117607355595</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036104636819158</v>
+        <v>1.032945208913142</v>
       </c>
       <c r="J22">
-        <v>1.002833993775732</v>
+        <v>1.027046454568418</v>
       </c>
       <c r="K22">
-        <v>1.029064042631025</v>
+        <v>1.032913810093766</v>
       </c>
       <c r="L22">
-        <v>0.9988965834416889</v>
+        <v>1.025019799786102</v>
       </c>
       <c r="M22">
-        <v>0.9909756186594383</v>
+        <v>1.033849604532536</v>
       </c>
       <c r="N22">
-        <v>1.00425813307356</v>
+        <v>1.02850497833778</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9726161352890029</v>
+        <v>1.02043806234855</v>
       </c>
       <c r="D23">
-        <v>1.014703951213016</v>
+        <v>1.029358039635562</v>
       </c>
       <c r="E23">
-        <v>0.9844316674335748</v>
+        <v>1.021541940392261</v>
       </c>
       <c r="F23">
-        <v>0.9770726415974287</v>
+        <v>1.030546046856303</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036582447891958</v>
+        <v>1.033012882211727</v>
       </c>
       <c r="J23">
-        <v>1.003916280084165</v>
+        <v>1.027254796436706</v>
       </c>
       <c r="K23">
-        <v>1.029683441490783</v>
+        <v>1.033024216342542</v>
       </c>
       <c r="L23">
-        <v>0.9999978472965573</v>
+        <v>1.025238412197397</v>
       </c>
       <c r="M23">
-        <v>0.9927886925714063</v>
+        <v>1.034207663497773</v>
       </c>
       <c r="N23">
-        <v>1.005341956352691</v>
+        <v>1.028713616075419</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.979773762626461</v>
+        <v>1.021787978647993</v>
       </c>
       <c r="D24">
-        <v>1.018350103403208</v>
+        <v>1.030067085299869</v>
       </c>
       <c r="E24">
-        <v>0.9900294231569458</v>
+        <v>1.022682130133603</v>
       </c>
       <c r="F24">
-        <v>0.9854641194175021</v>
+        <v>1.032234387905838</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038403364900341</v>
+        <v>1.033277080976526</v>
       </c>
       <c r="J24">
-        <v>1.008073267564873</v>
+        <v>1.028074664935219</v>
       </c>
       <c r="K24">
-        <v>1.032062455808286</v>
+        <v>1.03345798202778</v>
       </c>
       <c r="L24">
-        <v>1.004233925366585</v>
+        <v>1.026099334038044</v>
       </c>
       <c r="M24">
-        <v>0.9997514023599776</v>
+        <v>1.035617642872981</v>
       </c>
       <c r="N24">
-        <v>1.009504847232435</v>
+        <v>1.029534648881239</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9877501825658677</v>
+        <v>1.02335654042687</v>
       </c>
       <c r="D25">
-        <v>1.022446917689903</v>
+        <v>1.030891419981353</v>
       </c>
       <c r="E25">
-        <v>0.9963019820515306</v>
+        <v>1.024008849629563</v>
       </c>
       <c r="F25">
-        <v>0.9948173329400303</v>
+        <v>1.034196953777262</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040398251214404</v>
+        <v>1.033579042022276</v>
       </c>
       <c r="J25">
-        <v>1.012696953464377</v>
+        <v>1.029025315053099</v>
       </c>
       <c r="K25">
-        <v>1.034706488352667</v>
+        <v>1.033959455865145</v>
       </c>
       <c r="L25">
-        <v>1.008957977525849</v>
+        <v>1.027098902141314</v>
       </c>
       <c r="M25">
-        <v>1.007496639468217</v>
+        <v>1.037254529516405</v>
       </c>
       <c r="N25">
-        <v>1.01413509929626</v>
+        <v>1.030486649031328</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_248/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_248/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024609252641882</v>
+        <v>0.993871152806189</v>
       </c>
       <c r="D2">
-        <v>1.031550077435396</v>
+        <v>1.025613548488737</v>
       </c>
       <c r="E2">
-        <v>1.025069889366229</v>
+        <v>1.001140851133763</v>
       </c>
       <c r="F2">
-        <v>1.035764980930472</v>
+        <v>1.001998256242407</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033816135422419</v>
+        <v>1.041899896500187</v>
       </c>
       <c r="J2">
-        <v>1.029782908912855</v>
+        <v>1.01623673479796</v>
       </c>
       <c r="K2">
-        <v>1.034357871925654</v>
+        <v>1.036727216216053</v>
       </c>
       <c r="L2">
-        <v>1.027896538741618</v>
+        <v>1.012584314937061</v>
       </c>
       <c r="M2">
-        <v>1.038560649235037</v>
+        <v>1.013429822204803</v>
       </c>
       <c r="N2">
-        <v>1.031245318761266</v>
+        <v>1.01767990752535</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025519766115473</v>
+        <v>0.9981868872562426</v>
       </c>
       <c r="D3">
-        <v>1.032028970098973</v>
+        <v>1.027857578713298</v>
       </c>
       <c r="E3">
-        <v>1.02584193080756</v>
+        <v>1.004566335847066</v>
       </c>
       <c r="F3">
-        <v>1.036905067889644</v>
+        <v>1.007064195183791</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033986102177138</v>
+        <v>1.042940954296582</v>
       </c>
       <c r="J3">
-        <v>1.03033260366658</v>
+        <v>1.01872710188539</v>
       </c>
       <c r="K3">
-        <v>1.034646235768816</v>
+        <v>1.038146004911973</v>
       </c>
       <c r="L3">
-        <v>1.02847590082571</v>
+        <v>1.015141121076107</v>
       </c>
       <c r="M3">
-        <v>1.039509320476909</v>
+        <v>1.017607479254985</v>
       </c>
       <c r="N3">
-        <v>1.031795794144588</v>
+        <v>1.020173811219699</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026109356826506</v>
+        <v>1.000923313595835</v>
       </c>
       <c r="D4">
-        <v>1.032339136029018</v>
+        <v>1.029285083114543</v>
       </c>
       <c r="E4">
-        <v>1.026342241533654</v>
+        <v>1.006744346744194</v>
       </c>
       <c r="F4">
-        <v>1.037643502423261</v>
+        <v>1.010277882756825</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034095068309438</v>
+        <v>1.043592583687077</v>
       </c>
       <c r="J4">
-        <v>1.030688110142315</v>
+        <v>1.020303430370144</v>
       </c>
       <c r="K4">
-        <v>1.034832394066635</v>
+        <v>1.039042457890211</v>
       </c>
       <c r="L4">
-        <v>1.028850877591822</v>
+        <v>1.016762049283207</v>
       </c>
       <c r="M4">
-        <v>1.040123317964751</v>
+        <v>1.020253825455343</v>
       </c>
       <c r="N4">
-        <v>1.032151805480296</v>
+        <v>1.021752378271709</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026357322231704</v>
+        <v>1.002060738395448</v>
       </c>
       <c r="D5">
-        <v>1.032469597673264</v>
+        <v>1.029879475440254</v>
       </c>
       <c r="E5">
-        <v>1.026552750024266</v>
+        <v>1.007651071062602</v>
       </c>
       <c r="F5">
-        <v>1.037954112843225</v>
+        <v>1.011614104423461</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034140634453223</v>
+        <v>1.043861371245847</v>
       </c>
       <c r="J5">
-        <v>1.030837520483723</v>
+        <v>1.020957970313299</v>
       </c>
       <c r="K5">
-        <v>1.034910550513087</v>
+        <v>1.039414269856483</v>
       </c>
       <c r="L5">
-        <v>1.029008538616078</v>
+        <v>1.017435717007824</v>
       </c>
       <c r="M5">
-        <v>1.040381476516981</v>
+        <v>1.021353212837418</v>
       </c>
       <c r="N5">
-        <v>1.032301428001526</v>
+        <v>1.02240784773666</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026398962638525</v>
+        <v>1.002250969807926</v>
       </c>
       <c r="D6">
-        <v>1.032491506690992</v>
+        <v>1.029978944517628</v>
       </c>
       <c r="E6">
-        <v>1.026588105718766</v>
+        <v>1.007802800152497</v>
       </c>
       <c r="F6">
-        <v>1.038006275808441</v>
+        <v>1.011837609733062</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034148270931422</v>
+        <v>1.043906202533633</v>
       </c>
       <c r="J6">
-        <v>1.030862604499377</v>
+        <v>1.0210673998162</v>
       </c>
       <c r="K6">
-        <v>1.034923667167575</v>
+        <v>1.039476405390186</v>
       </c>
       <c r="L6">
-        <v>1.029035011787843</v>
+        <v>1.017548380119847</v>
       </c>
       <c r="M6">
-        <v>1.040424824456391</v>
+        <v>1.02153704798133</v>
       </c>
       <c r="N6">
-        <v>1.03232654763936</v>
+        <v>1.022517432642007</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026112669754795</v>
+        <v>1.000938562272305</v>
       </c>
       <c r="D7">
-        <v>1.032340878999198</v>
+        <v>1.029293047745741</v>
       </c>
       <c r="E7">
-        <v>1.026345053661143</v>
+        <v>1.006756497058213</v>
       </c>
       <c r="F7">
-        <v>1.037647652137305</v>
+        <v>1.010295794867624</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034095678122824</v>
+        <v>1.043596195362041</v>
       </c>
       <c r="J7">
-        <v>1.03069010674681</v>
+        <v>1.0203122080532</v>
       </c>
       <c r="K7">
-        <v>1.034833438808763</v>
+        <v>1.039047445782664</v>
       </c>
       <c r="L7">
-        <v>1.02885298418562</v>
+        <v>1.016771081076224</v>
       </c>
       <c r="M7">
-        <v>1.040126767358834</v>
+        <v>1.020268566523105</v>
       </c>
       <c r="N7">
-        <v>1.032153804920198</v>
+        <v>1.021761168420082</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02491687585162</v>
+        <v>0.9953415917734164</v>
       </c>
       <c r="D8">
-        <v>1.031711860358719</v>
+        <v>1.026377096837633</v>
       </c>
       <c r="E8">
-        <v>1.02533064867825</v>
+        <v>1.002306672460639</v>
       </c>
       <c r="F8">
-        <v>1.036150128962936</v>
+        <v>1.003723992091253</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033873786061641</v>
+        <v>1.042256351423335</v>
       </c>
       <c r="J8">
-        <v>1.029968718181677</v>
+        <v>1.017085792972233</v>
       </c>
       <c r="K8">
-        <v>1.034455414773418</v>
+        <v>1.037211244845819</v>
       </c>
       <c r="L8">
-        <v>1.028092317516147</v>
+        <v>1.013455488798564</v>
       </c>
       <c r="M8">
-        <v>1.038881227110102</v>
+        <v>1.014853754727871</v>
       </c>
       <c r="N8">
-        <v>1.031431391900558</v>
+        <v>1.018530171459624</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022813048909476</v>
+        <v>0.9850265812049237</v>
       </c>
       <c r="D9">
-        <v>1.030605744510038</v>
+        <v>1.021044167562668</v>
       </c>
       <c r="E9">
-        <v>1.023548924971929</v>
+        <v>0.9941560232189552</v>
       </c>
       <c r="F9">
-        <v>1.033516845456389</v>
+        <v>0.9916232028732992</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033475043440816</v>
+        <v>1.039721579111266</v>
       </c>
       <c r="J9">
-        <v>1.028696175647258</v>
+        <v>1.011119399877444</v>
       </c>
       <c r="K9">
-        <v>1.033786020040151</v>
+        <v>1.033804801358036</v>
       </c>
       <c r="L9">
-        <v>1.026752662002594</v>
+        <v>1.0073446318357</v>
       </c>
       <c r="M9">
-        <v>1.036687544938164</v>
+        <v>1.004853665742065</v>
       </c>
       <c r="N9">
-        <v>1.030157042209778</v>
+        <v>1.012555305402286</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021412778450242</v>
+        <v>0.977812276772635</v>
       </c>
       <c r="D10">
-        <v>1.029869973806245</v>
+        <v>1.017348010609928</v>
       </c>
       <c r="E10">
-        <v>1.022365075831965</v>
+        <v>0.9884925343754419</v>
       </c>
       <c r="F10">
-        <v>1.031765066423194</v>
+        <v>0.9831644673833432</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033204042143105</v>
+        <v>1.037907024320394</v>
       </c>
       <c r="J10">
-        <v>1.027846945132532</v>
+        <v>1.006934724794788</v>
       </c>
       <c r="K10">
-        <v>1.033337618171422</v>
+        <v>1.031410949933334</v>
       </c>
       <c r="L10">
-        <v>1.02586010835458</v>
+        <v>1.00307271521232</v>
       </c>
       <c r="M10">
-        <v>1.035225864468192</v>
+        <v>0.9978444944664475</v>
       </c>
       <c r="N10">
-        <v>1.029306605690313</v>
+        <v>1.008364687601023</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020806997438605</v>
+        <v>0.9746002114043486</v>
       </c>
       <c r="D11">
-        <v>1.029551786326544</v>
+        <v>1.015711718699857</v>
       </c>
       <c r="E11">
-        <v>1.021853412636592</v>
+        <v>0.9859804686629512</v>
       </c>
       <c r="F11">
-        <v>1.031007417202179</v>
+        <v>0.9793987324172516</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03308547516639</v>
+        <v>1.037089816248674</v>
       </c>
       <c r="J11">
-        <v>1.027479022749476</v>
+        <v>1.005069203720514</v>
       </c>
       <c r="K11">
-        <v>1.033142960252397</v>
+        <v>1.030343295457674</v>
       </c>
       <c r="L11">
-        <v>1.025473764599098</v>
+        <v>1.001171705903878</v>
       </c>
       <c r="M11">
-        <v>1.034593128309253</v>
+        <v>0.9947199045658205</v>
       </c>
       <c r="N11">
-        <v>1.028938160815272</v>
+        <v>1.006496517272846</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.02058206612613</v>
+        <v>0.9733931049571358</v>
       </c>
       <c r="D12">
-        <v>1.029433659994602</v>
+        <v>1.015098323878749</v>
       </c>
       <c r="E12">
-        <v>1.021663502312045</v>
+        <v>0.9850379206629623</v>
       </c>
       <c r="F12">
-        <v>1.030726125266673</v>
+        <v>0.9779835509200929</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033041251076737</v>
+        <v>1.036781361225174</v>
       </c>
       <c r="J12">
-        <v>1.027342330712366</v>
+        <v>1.004367819056097</v>
       </c>
       <c r="K12">
-        <v>1.033070581956895</v>
+        <v>1.0299418698414</v>
       </c>
       <c r="L12">
-        <v>1.025330280927125</v>
+        <v>1.000457496167832</v>
       </c>
       <c r="M12">
-        <v>1.034358129371736</v>
+        <v>0.9935450663909093</v>
       </c>
       <c r="N12">
-        <v>1.028801274659791</v>
+        <v>1.005794136561755</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020630310899767</v>
+        <v>0.9736526796208338</v>
       </c>
       <c r="D13">
-        <v>1.029458995631558</v>
+        <v>1.015230156391113</v>
       </c>
       <c r="E13">
-        <v>1.021704232177412</v>
+        <v>0.9852405363361147</v>
       </c>
       <c r="F13">
-        <v>1.030786457334039</v>
+        <v>0.9782878710296475</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03305074556878</v>
+        <v>1.036847750915139</v>
       </c>
       <c r="J13">
-        <v>1.027371652931206</v>
+        <v>1.004518657514448</v>
       </c>
       <c r="K13">
-        <v>1.033086110665253</v>
+        <v>1.030028199528528</v>
       </c>
       <c r="L13">
-        <v>1.025361057670088</v>
+        <v>1.000611069275547</v>
       </c>
       <c r="M13">
-        <v>1.034408536195855</v>
+        <v>0.9937977299194809</v>
       </c>
       <c r="N13">
-        <v>1.028830638519544</v>
+        <v>1.005945189228019</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020788402853904</v>
+        <v>0.9745007217659879</v>
       </c>
       <c r="D14">
-        <v>1.029542020679198</v>
+        <v>1.015661130916395</v>
       </c>
       <c r="E14">
-        <v>1.021837711641731</v>
+        <v>0.9859027531214944</v>
       </c>
       <c r="F14">
-        <v>1.030984162814942</v>
+        <v>0.9792820937081989</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033081823320311</v>
+        <v>1.037064420434498</v>
       </c>
       <c r="J14">
-        <v>1.027467724335996</v>
+        <v>1.005011401806308</v>
       </c>
       <c r="K14">
-        <v>1.033136978937225</v>
+        <v>1.030310213529998</v>
       </c>
       <c r="L14">
-        <v>1.025461903748226</v>
+        <v>1.001112836505565</v>
       </c>
       <c r="M14">
-        <v>1.034573702662548</v>
+        <v>0.9946230869389223</v>
       </c>
       <c r="N14">
-        <v>1.028926846356748</v>
+        <v>1.006438633273292</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02088581951067</v>
+        <v>0.9750213498020237</v>
       </c>
       <c r="D15">
-        <v>1.02959318350436</v>
+        <v>1.015925919258791</v>
       </c>
       <c r="E15">
-        <v>1.021919971886016</v>
+        <v>0.9863094989522861</v>
       </c>
       <c r="F15">
-        <v>1.031105993276859</v>
+        <v>0.9798924620686564</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033100947109752</v>
+        <v>1.037197261903378</v>
       </c>
       <c r="J15">
-        <v>1.027526913241818</v>
+        <v>1.0053138659102</v>
       </c>
       <c r="K15">
-        <v>1.033168310824889</v>
+        <v>1.030483323283838</v>
       </c>
       <c r="L15">
-        <v>1.025524041234191</v>
+        <v>1.001420907637492</v>
       </c>
       <c r="M15">
-        <v>1.034675470817556</v>
+        <v>0.9951297075371629</v>
       </c>
       <c r="N15">
-        <v>1.028986119317606</v>
+        <v>1.006741526910905</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021452993698449</v>
+        <v>0.9780235295807264</v>
       </c>
       <c r="D16">
-        <v>1.029891099558619</v>
+        <v>1.017455832536959</v>
       </c>
       <c r="E16">
-        <v>1.022399053382245</v>
+        <v>0.9886579530666267</v>
       </c>
       <c r="F16">
-        <v>1.03181536771259</v>
+        <v>0.9834121372311909</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03321188534727</v>
+        <v>1.037960581450207</v>
       </c>
       <c r="J16">
-        <v>1.027871358781194</v>
+        <v>1.007057371570806</v>
       </c>
       <c r="K16">
-        <v>1.03335052659029</v>
+        <v>1.031481136408295</v>
       </c>
       <c r="L16">
-        <v>1.025885751697692</v>
+        <v>1.003197766519504</v>
       </c>
       <c r="M16">
-        <v>1.035267860919046</v>
+        <v>0.9980499116540499</v>
       </c>
       <c r="N16">
-        <v>1.029331054009156</v>
+        <v>1.008487508549532</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021808913645538</v>
+        <v>0.9798825862305269</v>
       </c>
       <c r="D17">
-        <v>1.030078084320943</v>
+        <v>1.018405762732779</v>
       </c>
       <c r="E17">
-        <v>1.022699824116686</v>
+        <v>0.9901147540670904</v>
       </c>
       <c r="F17">
-        <v>1.032260575943535</v>
+        <v>0.9855917071912543</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033281147261461</v>
+        <v>1.038430839447298</v>
       </c>
       <c r="J17">
-        <v>1.028087367367801</v>
+        <v>1.008136418319135</v>
       </c>
       <c r="K17">
-        <v>1.033464693373511</v>
+        <v>1.032098589230367</v>
       </c>
       <c r="L17">
-        <v>1.026112680652366</v>
+        <v>1.004298356266707</v>
       </c>
       <c r="M17">
-        <v>1.03563950023462</v>
+        <v>0.9998571720372382</v>
       </c>
       <c r="N17">
-        <v>1.029547369352733</v>
+        <v>1.009568087668012</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022016568292506</v>
+        <v>0.9809584834325908</v>
       </c>
       <c r="D18">
-        <v>1.03018718844051</v>
+        <v>1.018956399292954</v>
       </c>
       <c r="E18">
-        <v>1.022875350300015</v>
+        <v>0.9909587517301703</v>
       </c>
       <c r="F18">
-        <v>1.032520343528521</v>
+        <v>0.9868531379274504</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033321428661346</v>
+        <v>1.038702106803918</v>
       </c>
       <c r="J18">
-        <v>1.028213342176921</v>
+        <v>1.008760672065325</v>
       </c>
       <c r="K18">
-        <v>1.033531236912221</v>
+        <v>1.032455750907064</v>
       </c>
       <c r="L18">
-        <v>1.026245057714607</v>
+        <v>1.004935395481159</v>
       </c>
       <c r="M18">
-        <v>1.035856288620335</v>
+        <v>1.000902728861008</v>
       </c>
       <c r="N18">
-        <v>1.029673523060531</v>
+        <v>1.010193227926124</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.022087382052343</v>
+        <v>0.9813239236078877</v>
       </c>
       <c r="D19">
-        <v>1.030224396702491</v>
+        <v>1.019143574813875</v>
       </c>
       <c r="E19">
-        <v>1.022935215708925</v>
+        <v>0.9912455753092829</v>
       </c>
       <c r="F19">
-        <v>1.032608932002731</v>
+        <v>0.9872816055064834</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033335143564169</v>
+        <v>1.038794093812193</v>
       </c>
       <c r="J19">
-        <v>1.028256293027005</v>
+        <v>1.008972667144353</v>
       </c>
       <c r="K19">
-        <v>1.03355391836523</v>
+        <v>1.032577032201885</v>
       </c>
       <c r="L19">
-        <v>1.026290197091003</v>
+        <v>1.005151786979045</v>
       </c>
       <c r="M19">
-        <v>1.035930210812202</v>
+        <v>1.001257802551875</v>
       </c>
       <c r="N19">
-        <v>1.029716534905749</v>
+        <v>1.010405524062481</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02177072136092</v>
+        <v>0.9796840072432862</v>
       </c>
       <c r="D20">
-        <v>1.030058018572279</v>
+        <v>1.018304201743602</v>
       </c>
       <c r="E20">
-        <v>1.022667544769094</v>
+        <v>0.9899590491231547</v>
       </c>
       <c r="F20">
-        <v>1.032212800504768</v>
+        <v>0.9853588879941033</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033273728305182</v>
+        <v>1.038380699458821</v>
       </c>
       <c r="J20">
-        <v>1.028064193686156</v>
+        <v>1.008021180887739</v>
       </c>
       <c r="K20">
-        <v>1.033452449317379</v>
+        <v>1.032032652712915</v>
       </c>
       <c r="L20">
-        <v>1.026088331947011</v>
+        <v>1.004180784649642</v>
       </c>
       <c r="M20">
-        <v>1.035599625045433</v>
+        <v>0.9996641637334837</v>
       </c>
       <c r="N20">
-        <v>1.029524162761801</v>
+        <v>1.009452686586245</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.02074184642364</v>
+        <v>0.9742513872996439</v>
       </c>
       <c r="D21">
-        <v>1.029517570128889</v>
+        <v>1.01553437617186</v>
       </c>
       <c r="E21">
-        <v>1.021798401276625</v>
+        <v>0.9857080118074616</v>
       </c>
       <c r="F21">
-        <v>1.030925939813872</v>
+        <v>0.9789897810679828</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033072676745725</v>
+        <v>1.037000753610027</v>
       </c>
       <c r="J21">
-        <v>1.027439434504025</v>
+        <v>1.004866537471145</v>
       </c>
       <c r="K21">
-        <v>1.033122001524951</v>
+        <v>1.030227302848468</v>
       </c>
       <c r="L21">
-        <v>1.025432206488315</v>
+        <v>1.000965305177891</v>
       </c>
       <c r="M21">
-        <v>1.034525064495281</v>
+        <v>0.9943804390499186</v>
       </c>
       <c r="N21">
-        <v>1.028898516349971</v>
+        <v>1.006293563214157</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.020095430948906</v>
+        <v>0.9707542598690626</v>
       </c>
       <c r="D22">
-        <v>1.029178132118423</v>
+        <v>1.013760339394723</v>
       </c>
       <c r="E22">
-        <v>1.021252770994926</v>
+        <v>0.9829802502212924</v>
       </c>
       <c r="F22">
-        <v>1.030117607355595</v>
+        <v>0.9748897531617509</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032945208913142</v>
+        <v>1.036104636819158</v>
       </c>
       <c r="J22">
-        <v>1.027046454568418</v>
+        <v>1.002833993775731</v>
       </c>
       <c r="K22">
-        <v>1.032913810093766</v>
+        <v>1.029064042631025</v>
       </c>
       <c r="L22">
-        <v>1.025019799786102</v>
+        <v>0.998896583441688</v>
       </c>
       <c r="M22">
-        <v>1.033849604532536</v>
+        <v>0.9909756186594378</v>
       </c>
       <c r="N22">
-        <v>1.02850497833778</v>
+        <v>1.00425813307356</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02043806234855</v>
+        <v>0.972616135289003</v>
       </c>
       <c r="D23">
-        <v>1.029358039635562</v>
+        <v>1.014703951213016</v>
       </c>
       <c r="E23">
-        <v>1.021541940392261</v>
+        <v>0.9844316674335752</v>
       </c>
       <c r="F23">
-        <v>1.030546046856303</v>
+        <v>0.977072641597429</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033012882211727</v>
+        <v>1.036582447891958</v>
       </c>
       <c r="J23">
-        <v>1.027254796436706</v>
+        <v>1.003916280084165</v>
       </c>
       <c r="K23">
-        <v>1.033024216342542</v>
+        <v>1.029683441490783</v>
       </c>
       <c r="L23">
-        <v>1.025238412197397</v>
+        <v>0.9999978472965576</v>
       </c>
       <c r="M23">
-        <v>1.034207663497773</v>
+        <v>0.9927886925714067</v>
       </c>
       <c r="N23">
-        <v>1.028713616075419</v>
+        <v>1.005341956352691</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.021787978647993</v>
+        <v>0.9797737626264607</v>
       </c>
       <c r="D24">
-        <v>1.030067085299869</v>
+        <v>1.018350103403208</v>
       </c>
       <c r="E24">
-        <v>1.022682130133603</v>
+        <v>0.9900294231569454</v>
       </c>
       <c r="F24">
-        <v>1.032234387905838</v>
+        <v>0.9854641194175019</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033277080976526</v>
+        <v>1.038403364900341</v>
       </c>
       <c r="J24">
-        <v>1.028074664935219</v>
+        <v>1.008073267564872</v>
       </c>
       <c r="K24">
-        <v>1.03345798202778</v>
+        <v>1.032062455808286</v>
       </c>
       <c r="L24">
-        <v>1.026099334038044</v>
+        <v>1.004233925366584</v>
       </c>
       <c r="M24">
-        <v>1.035617642872981</v>
+        <v>0.9997514023599774</v>
       </c>
       <c r="N24">
-        <v>1.029534648881239</v>
+        <v>1.009504847232435</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02335654042687</v>
+        <v>0.987750182565867</v>
       </c>
       <c r="D25">
-        <v>1.030891419981353</v>
+        <v>1.022446917689903</v>
       </c>
       <c r="E25">
-        <v>1.024008849629563</v>
+        <v>0.99630198205153</v>
       </c>
       <c r="F25">
-        <v>1.034196953777262</v>
+        <v>0.9948173329400299</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033579042022276</v>
+        <v>1.040398251214405</v>
       </c>
       <c r="J25">
-        <v>1.029025315053099</v>
+        <v>1.012696953464376</v>
       </c>
       <c r="K25">
-        <v>1.033959455865145</v>
+        <v>1.034706488352667</v>
       </c>
       <c r="L25">
-        <v>1.027098902141314</v>
+        <v>1.008957977525848</v>
       </c>
       <c r="M25">
-        <v>1.037254529516405</v>
+        <v>1.007496639468217</v>
       </c>
       <c r="N25">
-        <v>1.030486649031328</v>
+        <v>1.01413509929626</v>
       </c>
     </row>
   </sheetData>
